--- a/Semester 5/UI-UX Design/rubik2023.xlsx
+++ b/Semester 5/UI-UX Design/rubik2023.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TonDucThang\UI_UX\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TDTU\Semester 5\UI-UX Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E63FB39-7778-4CF5-80ED-47847830D5F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF5B30E7-AFC8-400B-8926-023AC6301E94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Cuối kỳ" sheetId="1" r:id="rId1"/>
+    <sheet name="Giữa kỳ" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="77">
   <si>
     <t>STT</t>
   </si>
@@ -114,9 +115,6 @@
     <t>Personas</t>
   </si>
   <si>
-    <t>Dashboard</t>
-  </si>
-  <si>
     <t>Flow screen &amp; tổ chức screen</t>
   </si>
   <si>
@@ -241,6 +239,24 @@
   </si>
   <si>
     <t>Trên 10 lỗi - 0đ</t>
+  </si>
+  <si>
+    <t>Storyboard</t>
+  </si>
+  <si>
+    <t>Xây dựng dưới 3 storyboard</t>
+  </si>
+  <si>
+    <t>Xây dựng trên 3 storyboard</t>
+  </si>
+  <si>
+    <t>2.0 đ</t>
+  </si>
+  <si>
+    <t>4.5 đ</t>
+  </si>
+  <si>
+    <t>5.5 đ</t>
   </si>
 </sst>
 </file>
@@ -560,13 +576,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="G58" sqref="G58"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="36" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -612,7 +628,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G6" t="s">
         <v>21</v>
@@ -620,7 +636,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G7" t="s">
         <v>21</v>
@@ -708,15 +724,15 @@
     </row>
     <row r="18" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G19" t="s">
         <v>21</v>
@@ -724,7 +740,7 @@
     </row>
     <row r="20" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G20" t="s">
         <v>11</v>
@@ -732,7 +748,7 @@
     </row>
     <row r="21" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="F21" t="s">
         <v>11</v>
@@ -740,15 +756,15 @@
     </row>
     <row r="22" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D22" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="G22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D23" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="G23" t="s">
         <v>21</v>
@@ -756,7 +772,7 @@
     </row>
     <row r="24" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G24" t="s">
         <v>11</v>
@@ -764,23 +780,23 @@
     </row>
     <row r="25" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F27" t="s">
         <v>11</v>
@@ -788,15 +804,15 @@
     </row>
     <row r="28" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G29" t="s">
         <v>21</v>
@@ -804,7 +820,7 @@
     </row>
     <row r="30" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G30" t="s">
         <v>11</v>
@@ -812,31 +828,31 @@
     </row>
     <row r="31" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D31" t="s">
+        <v>41</v>
+      </c>
+      <c r="E31" t="s">
         <v>42</v>
-      </c>
-      <c r="E31" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="32" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D32" t="s">
+        <v>43</v>
+      </c>
+      <c r="E32" t="s">
         <v>44</v>
-      </c>
-      <c r="E32" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F34" t="s">
         <v>11</v>
@@ -844,15 +860,15 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D35" t="s">
+        <v>31</v>
+      </c>
+      <c r="G35" t="s">
         <v>32</v>
-      </c>
-      <c r="G35" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G36" t="s">
         <v>21</v>
@@ -860,7 +876,7 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D37" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G37" t="s">
         <v>11</v>
@@ -879,82 +895,82 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
+        <v>47</v>
+      </c>
+      <c r="F39" t="s">
         <v>48</v>
-      </c>
-      <c r="F39" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D40" t="s">
+        <v>49</v>
+      </c>
+      <c r="E40" t="s">
         <v>50</v>
-      </c>
-      <c r="E40" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D41" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E41" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D42" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E42" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D43" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E43" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F44" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D45" t="s">
+        <v>49</v>
+      </c>
+      <c r="E45" t="s">
         <v>50</v>
-      </c>
-      <c r="E45" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D46" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E46" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D47" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E47" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D48" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E48" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -1002,26 +1018,26 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E54" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E55" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E56" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
@@ -1037,28 +1053,348 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
+        <v>65</v>
+      </c>
+      <c r="F58" t="s">
         <v>66</v>
-      </c>
-      <c r="F58" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
+        <v>67</v>
+      </c>
+      <c r="E59" t="s">
         <v>68</v>
-      </c>
-      <c r="E59" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E60" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E61" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EC08CCC-79DF-1F47-B6FF-B15070128779}">
+  <dimension ref="A1:G37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="53.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C17" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="D18" t="s">
+        <v>38</v>
+      </c>
+      <c r="G18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="D19" t="s">
+        <v>39</v>
+      </c>
+      <c r="G19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="D20" t="s">
+        <v>40</v>
+      </c>
+      <c r="G20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C21" t="s">
         <v>71</v>
+      </c>
+      <c r="F21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="D22" t="s">
+        <v>58</v>
+      </c>
+      <c r="G22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="D23" t="s">
+        <v>59</v>
+      </c>
+      <c r="G23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="D24" t="s">
+        <v>60</v>
+      </c>
+      <c r="G24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="D25" t="s">
+        <v>61</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="D26" t="s">
+        <v>62</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C27" t="s">
+        <v>29</v>
+      </c>
+      <c r="F27" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="D28" t="s">
+        <v>35</v>
+      </c>
+      <c r="G28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="D29" t="s">
+        <v>36</v>
+      </c>
+      <c r="G29" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="D30" t="s">
+        <v>37</v>
+      </c>
+      <c r="G30" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="D31" t="s">
+        <v>41</v>
+      </c>
+      <c r="E31" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="D32" t="s">
+        <v>43</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="33" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="D33" t="s">
+        <v>46</v>
+      </c>
+      <c r="E33" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="34" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C34" t="s">
+        <v>30</v>
+      </c>
+      <c r="F34" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="D35" t="s">
+        <v>31</v>
+      </c>
+      <c r="G35" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="D36" t="s">
+        <v>33</v>
+      </c>
+      <c r="G36" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="D37" t="s">
+        <v>34</v>
+      </c>
+      <c r="G37" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Semester 5/UI-UX Design/rubik2023.xlsx
+++ b/Semester 5/UI-UX Design/rubik2023.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TDTU\Semester 5\UI-UX Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF5B30E7-AFC8-400B-8926-023AC6301E94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29CD0644-7836-41EA-B949-FD40E9D3BE8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1086,8 +1086,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EC08CCC-79DF-1F47-B6FF-B15070128779}">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
